--- a/betshemesh_muni/Intermediates/BShemesh_without_garden.xlsx
+++ b/betshemesh_muni/Intermediates/BShemesh_without_garden.xlsx
@@ -7300,6 +7300,9 @@
       <c r="B30" t="s">
         <v>113</v>
       </c>
+      <c r="C30">
+        <v>673392</v>
+      </c>
       <c r="D30" t="s">
         <v>256</v>
       </c>
